--- a/Data_preparation/datasets/final_data/Zapata_Computing_Holdings_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Zapata_Computing_Holdings_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,39 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
   </si>
 </sst>
 </file>
@@ -685,22 +652,22 @@
         <v>44377</v>
       </c>
       <c r="D2">
-        <v>40.06459571156605</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E2">
-        <v>40.04537963867188</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F2">
-        <v>40.5353766696543</v>
+        <v>15.5</v>
       </c>
       <c r="G2">
-        <v>36.25990124070713</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H2">
-        <v>219937482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>284625000</v>
@@ -762,22 +729,22 @@
         <v>44469</v>
       </c>
       <c r="D3">
-        <v>51.72000122070312</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E3">
-        <v>45.22999954223633</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F3">
-        <v>53.2400016784668</v>
+        <v>15.5</v>
       </c>
       <c r="G3">
-        <v>43.54000091552734</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H3">
-        <v>134598631</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>284625000</v>
@@ -839,22 +806,22 @@
         <v>44561</v>
       </c>
       <c r="D4">
-        <v>98.06110899770088</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E4">
-        <v>84.43734741210938</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F4">
-        <v>98.06110899770088</v>
+        <v>15.5</v>
       </c>
       <c r="G4">
-        <v>80.56356001156674</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H4">
-        <v>229140423</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>284625000</v>
@@ -931,22 +898,22 @@
         <v>44651</v>
       </c>
       <c r="D5">
-        <v>564.8420934999623</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E5">
-        <v>567.5840454101562</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F5">
-        <v>568.4980293802209</v>
+        <v>15.5</v>
       </c>
       <c r="G5">
-        <v>487.1534560444658</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H5">
-        <v>275900103</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>286637500</v>
@@ -1023,22 +990,22 @@
         <v>44742</v>
       </c>
       <c r="D6">
-        <v>990.9535599144536</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E6">
-        <v>932.830322265625</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F6">
-        <v>1065.275076908038</v>
+        <v>15.5</v>
       </c>
       <c r="G6">
-        <v>932.830322265625</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H6">
-        <v>1333460157</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>286925000</v>
@@ -1115,22 +1082,22 @@
         <v>44834</v>
       </c>
       <c r="D7">
-        <v>3829.951036061672</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E7">
-        <v>3718.19677734375</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F7">
-        <v>4026.941593801738</v>
+        <v>15.5</v>
       </c>
       <c r="G7">
-        <v>3570.453859038701</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H7">
-        <v>933160187</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>289225000</v>
@@ -1207,22 +1174,22 @@
         <v>44926</v>
       </c>
       <c r="D8">
-        <v>17.67499923706055</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E8">
-        <v>19.1200008392334</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F8">
-        <v>19.76000022888184</v>
+        <v>15.5</v>
       </c>
       <c r="G8">
-        <v>17.08499908447266</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H8">
-        <v>795535712</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>296987500</v>
@@ -1299,22 +1266,22 @@
         <v>45016</v>
       </c>
       <c r="D9">
-        <v>4646.163088703966</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E9">
-        <v>4397.0390625</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F9">
-        <v>4647.12125803552</v>
+        <v>15.5</v>
       </c>
       <c r="G9">
-        <v>4224.568582820331</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H9">
-        <v>933160187</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>302162500</v>
@@ -1406,22 +1373,22 @@
         <v>45107</v>
       </c>
       <c r="D10">
-        <v>299.8867087280755</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E10">
-        <v>279.6763610839844</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F10">
-        <v>311.3327623979251</v>
+        <v>15.5</v>
       </c>
       <c r="G10">
-        <v>274.7053735580706</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H10">
-        <v>193969420</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>305900000</v>
@@ -1513,22 +1480,22 @@
         <v>45199</v>
       </c>
       <c r="D11">
-        <v>1366.269412157012</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E11">
-        <v>1400.426147460938</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F11">
-        <v>1722.475366040805</v>
+        <v>15.5</v>
       </c>
       <c r="G11">
-        <v>1356.510344927319</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H11">
-        <v>134011000</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>189041846</v>
@@ -1611,22 +1578,22 @@
         <v>45291</v>
       </c>
       <c r="D12">
-        <v>124.5980016318655</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E12">
-        <v>132.1493988037109</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F12">
-        <v>136.1187273141222</v>
+        <v>15.5</v>
       </c>
       <c r="G12">
-        <v>122.5649354352075</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H12">
-        <v>229140423</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>148318986.8699999</v>
@@ -1709,22 +1676,22 @@
         <v>45382</v>
       </c>
       <c r="D13">
-        <v>4156.728619089413</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E13">
-        <v>4553.76318359375</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F13">
-        <v>5096.40944657156</v>
+        <v>15.5</v>
       </c>
       <c r="G13">
-        <v>3750.957352676668</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="H13">
-        <v>175134528</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>31107100.2</v>
@@ -1825,22 +1792,22 @@
         <v>45473</v>
       </c>
       <c r="D14">
-        <v>2890.935410112718</v>
+        <v>0.5953999757766724</v>
       </c>
       <c r="E14">
-        <v>2691.009033203125</v>
+        <v>0.5723999738693237</v>
       </c>
       <c r="F14">
-        <v>3014.889763796666</v>
+        <v>0.7773000001907349</v>
       </c>
       <c r="G14">
-        <v>2519.072349060875</v>
+        <v>0.506600022315979</v>
       </c>
       <c r="H14">
-        <v>104878138</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>3116167.406</v>
